--- a/NN_max_NO2.xlsx
+++ b/NN_max_NO2.xlsx
@@ -15,9 +15,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -55,12 +52,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,297 +351,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>RunDate</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Max_NO2_day</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>43552</v>
-      </c>
-      <c r="B2">
+      <c r="A2">
         <v>128.4583333333333</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>43553</v>
-      </c>
-      <c r="B3">
-        <v>97.875</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>43554</v>
-      </c>
-      <c r="B4">
-        <v>109.1666666666667</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>43555</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>43556</v>
-      </c>
-      <c r="B6">
-        <v>80.83333333333333</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>43557</v>
-      </c>
-      <c r="B7">
-        <v>71.29166666666667</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>43558</v>
-      </c>
-      <c r="B8">
-        <v>102.9583333333333</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>43559</v>
-      </c>
-      <c r="B9">
-        <v>73.25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>43560</v>
-      </c>
-      <c r="B10">
-        <v>55.16666666666666</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>43561</v>
-      </c>
-      <c r="B11">
-        <v>26.70833333333333</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>43562</v>
-      </c>
-      <c r="B12">
-        <v>36.66666666666666</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>43563</v>
-      </c>
-      <c r="B13">
-        <v>52.125</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>43564</v>
-      </c>
-      <c r="B14">
-        <v>51.625</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>43565</v>
-      </c>
-      <c r="B15">
-        <v>57.41666666666666</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>43566</v>
-      </c>
-      <c r="B16">
-        <v>87.79166666666667</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>43567</v>
-      </c>
-      <c r="B17">
-        <v>82.95833333333333</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>43568</v>
-      </c>
-      <c r="B18">
-        <v>74.625</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>43569</v>
-      </c>
-      <c r="B19">
-        <v>58.08333333333334</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>43570</v>
-      </c>
-      <c r="B20">
-        <v>57.29166666666666</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>43571</v>
-      </c>
-      <c r="B21">
-        <v>90.79166666666667</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2">
-        <v>43572</v>
-      </c>
-      <c r="B22">
-        <v>77.95833333333333</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2">
-        <v>43573</v>
-      </c>
-      <c r="B23">
-        <v>42.95833333333334</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2">
-        <v>43574</v>
-      </c>
-      <c r="B24">
-        <v>35.91666666666666</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2">
-        <v>43575</v>
-      </c>
-      <c r="B25">
-        <v>33.25</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2">
-        <v>43576</v>
-      </c>
-      <c r="B26">
-        <v>23.16666666666667</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2">
-        <v>43577</v>
-      </c>
-      <c r="B27">
-        <v>68.78260869565217</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2">
-        <v>43578</v>
-      </c>
-      <c r="B28">
-        <v>53.625</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2">
-        <v>43579</v>
-      </c>
-      <c r="B29">
-        <v>53.70833333333334</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2">
-        <v>43580</v>
-      </c>
-      <c r="B30">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2">
-        <v>43581</v>
-      </c>
-      <c r="B31">
-        <v>51.83333333333334</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2">
-        <v>43582</v>
-      </c>
-      <c r="B32">
-        <v>99.56521739130434</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2">
-        <v>43583</v>
-      </c>
-      <c r="B33">
-        <v>103.2608695652174</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2">
-        <v>43584</v>
-      </c>
-      <c r="B34">
-        <v>77.39130434782609</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2">
-        <v>43585</v>
-      </c>
-      <c r="B35">
-        <v>64.95833333333333</v>
       </c>
     </row>
   </sheetData>
